--- a/B01_14 UI自动化/07 数据驱动/Project8_round2/data/casedata2.xlsx
+++ b/B01_14 UI自动化/07 数据驱动/Project8_round2/data/casedata2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
   <si>
     <t>用例编号</t>
   </si>
@@ -1222,15 +1222,15 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F7"/>
+      <selection activeCell="A4" sqref="A4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87387387387387" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.84684684684685" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="23.3783783783784" customWidth="1"/>
-    <col min="3" max="3" width="40.4234234234234" customWidth="1"/>
+    <col min="3" max="3" width="40.3783783783784" customWidth="1"/>
     <col min="5" max="5" width="12.3783783783784" customWidth="1"/>
-    <col min="6" max="6" width="20.5045045045045" customWidth="1"/>
+    <col min="6" max="6" width="20.5315315315315" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1507,160 +1507,283 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="7" max="7" width="23.6306306306306" customWidth="1"/>
+    <col min="2" max="2" width="21.3063063063063" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="23.6126126126126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>35</v>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="admin@tynam.com"/>
-    <hyperlink ref="D6" r:id="rId2" display="adminadmadminadmincimin@adminadmin.comcom"/>
-    <hyperlink ref="D5" r:id="rId1" display="a@t.c"/>
+    <hyperlink ref="C12" r:id="rId1" display="admin1@tynam.com"/>
+    <hyperlink ref="C10:C13" r:id="rId2" display="admin@tynam.com"/>
+    <hyperlink ref="C9" r:id="rId2" display="admin@tynam.com"/>
+    <hyperlink ref="C6" r:id="rId3" display="adminadmadminadmincimin@adminadmin.comcom"/>
+    <hyperlink ref="C5" r:id="rId2" display="a@t.c"/>
+    <hyperlink ref="C2" r:id="rId2" display="admin@tynam.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
